--- a/data/trans_camb/DCD-Clase-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Clase-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>1.048962535141357</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.119075040141489</v>
+        <v>4.119075040141487</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-3.058912047758791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.400731827423016</v>
+        <v>9.400731827423011</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.6071636225829263</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.926250689561947</v>
+        <v>6.926250689561944</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.892750218704115</v>
+        <v>-1.780400659834689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.164527749068248</v>
+        <v>1.073793059430293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.908331176973271</v>
+        <v>-7.540191482294395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.250574064980764</v>
+        <v>4.502154364875861</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.417232383870835</v>
+        <v>-3.590398720248698</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.227996090432057</v>
+        <v>4.005159815085021</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.090742364415521</v>
+        <v>4.413805002335152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.004955465827415</v>
+        <v>6.967303534785612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.517660885720151</v>
+        <v>1.694962155193839</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.8910294306204</v>
+        <v>14.55531326455155</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.012251055547841</v>
+        <v>1.900709163508135</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.656920253352496</v>
+        <v>9.901968622976209</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>0.2303771452768252</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.9046469412760696</v>
+        <v>0.9046469412760694</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.2825414539659745</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.8683140925252768</v>
+        <v>0.8683140925252762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08459163872709677</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9649835304233935</v>
+        <v>0.9649835304233931</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3333952389818651</v>
+        <v>-0.324460104723046</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1798294903083663</v>
+        <v>0.1485624972053838</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5914181552906772</v>
+        <v>-0.5563977620924071</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2834567600035924</v>
+        <v>0.3105457547459426</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3917162967351573</v>
+        <v>-0.4022742831142067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4653757290568978</v>
+        <v>0.4669108778443432</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.284240010357086</v>
+        <v>1.372199676310945</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.397566305634473</v>
+        <v>2.320267206909051</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2203989619220872</v>
+        <v>0.2533681869537609</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.750158070147062</v>
+        <v>1.853539656306849</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3467487043119456</v>
+        <v>0.330467943351163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.737250373187083</v>
+        <v>1.709019345022646</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-0.5458771629195857</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.704272171841355</v>
+        <v>4.704272171841352</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-2.454000601472066</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.496860290602073</v>
+        <v>-3.63635313880629</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.224026739085066</v>
+        <v>1.569717810635733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.642529271458316</v>
+        <v>-7.258880963073796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.106014983190126</v>
+        <v>5.111611280780839</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.201054768576086</v>
+        <v>-4.284070814808624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.452051851555883</v>
+        <v>4.309429305812011</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.931611506517869</v>
+        <v>3.049929739219018</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.918691553637203</v>
+        <v>8.442845586418274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.463880040649413</v>
+        <v>3.02389758712993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.41952350879774</v>
+        <v>15.31911158841223</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.481067048431049</v>
+        <v>1.717249342437126</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.39191691331465</v>
+        <v>10.36235687793856</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.1053808504272331</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.9081534011395109</v>
+        <v>0.9081534011395104</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1889410890457038</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.8105744321816517</v>
+        <v>0.8105744321816515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.127223717136445</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5377649978672758</v>
+        <v>-0.5374807076820814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1620143009798951</v>
+        <v>0.1987652267253722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4762324241849056</v>
+        <v>-0.4672211028997405</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3187674452427921</v>
+        <v>0.3113657263713667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4184699602328519</v>
+        <v>-0.4178078108857937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4099746954272256</v>
+        <v>0.4089587811383096</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7817980709469402</v>
+        <v>0.8929491511702899</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.21311061047911</v>
+        <v>2.362961662073745</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2473608281997665</v>
+        <v>0.3217940830928152</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.586460570815605</v>
+        <v>1.513030005845437</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2000213470666311</v>
+        <v>0.2612626665903343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.472521804298245</v>
+        <v>1.481463212938149</v>
       </c>
     </row>
     <row r="16">
@@ -932,13 +932,13 @@
         <v>-1.640038246218757</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.631302182084355</v>
+        <v>5.631302182084353</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>5.455283971645897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.7241326086243</v>
+        <v>18.72413260862431</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.1726883144440639</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.866578776997694</v>
+        <v>-4.869431854131623</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.203481248213619</v>
+        <v>1.876738199875471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.129489183556622</v>
+        <v>-2.100470284188225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.7831355332039</v>
+        <v>11.28647068805271</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.153200971718135</v>
+        <v>-3.354564842728692</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.788130665746925</v>
+        <v>5.852371502890552</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.775889583044891</v>
+        <v>1.417750003153495</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.806088715209381</v>
+        <v>9.603363073548135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.68637825434195</v>
+        <v>12.51044055349459</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.50632481935184</v>
+        <v>25.8762837806133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.781451909983218</v>
+        <v>3.3365031371691</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.71349096129672</v>
+        <v>13.07248124222167</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.1936143348296612</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6648020731972929</v>
+        <v>0.6648020731972926</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4104425688665643</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4847089137679933</v>
+        <v>-0.482938641223051</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2059608276340407</v>
+        <v>0.1818529764795087</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1312326715012056</v>
+        <v>-0.1292853187124188</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6981047044937043</v>
+        <v>0.6645603101929329</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2825045703389912</v>
+        <v>-0.294319468971002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5054724324143833</v>
+        <v>0.4849848428684737</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2793281988220814</v>
+        <v>0.2195749428903715</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.494492835560392</v>
+        <v>1.381195527630136</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.427531804395233</v>
+        <v>1.235851352681479</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.576917482506603</v>
+        <v>2.419962247528761</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3400061647997663</v>
+        <v>0.3710854665380399</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.501173725095152</v>
+        <v>1.50709675761969</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.233590251452931</v>
+        <v>-3.164881775403773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.614150389082639</v>
+        <v>4.659276958114787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.369148886123789</v>
+        <v>-5.570604927295811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.773682313462793</v>
+        <v>7.034655998657382</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.33184137395351</v>
+        <v>-3.144517720796868</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.996539547952953</v>
+        <v>7.01388487336584</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.359895195944655</v>
+        <v>1.357113208680852</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.18515956498651</v>
+        <v>10.25778024013047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.294400517755078</v>
+        <v>1.516093424428005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.09628609864578</v>
+        <v>14.55064599931577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5659843650556176</v>
+        <v>0.7953974723328779</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.35974888246565</v>
+        <v>11.1624035991736</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.1561613002805566</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.7747088052618731</v>
+        <v>0.7747088052618729</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1274577432547573</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.334662579084086</v>
+        <v>-0.3264515238803134</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4959631307583574</v>
+        <v>0.4702743272250767</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3561379445440155</v>
+        <v>-0.3617719596093987</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4507137744631515</v>
+        <v>0.4386709437821363</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2919927143312674</v>
+        <v>-0.2760369031699952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6108218665372744</v>
+        <v>0.6003259901623947</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1820970320520571</v>
+        <v>0.1837442669804421</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.427771370158595</v>
+        <v>1.441622686577012</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1069536439571391</v>
+        <v>0.1341543808343212</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.213754572199453</v>
+        <v>1.243120777959598</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05810425473778009</v>
+        <v>0.08408847785486789</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.25403877311998</v>
+        <v>1.185773688336883</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>3.355914853615201</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>9.507229154961498</v>
+        <v>9.507229154961495</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-3.471648553460099</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07233843274860807</v>
+        <v>-0.2785946590883882</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.057971357409218</v>
+        <v>5.566115273253012</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.574000281366667</v>
+        <v>-7.890260424974979</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.869656145789454</v>
+        <v>8.853116095618821</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.05741086043164</v>
+        <v>-3.87951745551234</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.754466669241442</v>
+        <v>8.603354519029066</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.629215375373705</v>
+        <v>6.660255542321419</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.19033338571562</v>
+        <v>13.41406716491581</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8734061579282221</v>
+        <v>0.582348802392528</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.38901973844253</v>
+        <v>17.08362631596112</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.438875922976353</v>
+        <v>1.623273693915964</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.8406766220021</v>
+        <v>14.5257855405552</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.07431273288667607</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7770421811232585</v>
+        <v>0.7770421811232582</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01179096599585115</v>
+        <v>-0.04579399471088216</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.7012198674196232</v>
+        <v>0.6145538940835921</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3318521131266486</v>
+        <v>-0.3436590475023001</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3722924086325626</v>
+        <v>0.3899255698628284</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2433457179074471</v>
+        <v>-0.2360049650602046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.515007329320496</v>
+        <v>0.4990889215944246</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.276331444086104</v>
+        <v>1.282178500533723</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.746640910952031</v>
+        <v>2.639426606356791</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.04670891548555391</v>
+        <v>0.02757248069599823</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.939476307088656</v>
+        <v>0.9412471909256476</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1078382860175858</v>
+        <v>0.1197269646941173</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.099905791721842</v>
+        <v>1.071958267257467</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.476970627504184</v>
+        <v>-1.116333910521683</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6358647679642381</v>
+        <v>0.7842047812299628</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.448271151405431</v>
+        <v>-8.80319924133658</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.19855579443767</v>
+        <v>5.016861293928797</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.210607206075172</v>
+        <v>-7.130083109773917</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.589584523353988</v>
+        <v>3.780496497031823</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.542737164678559</v>
+        <v>1.5500631258255</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.752991239270753</v>
+        <v>5.918363016959106</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.980100448834795</v>
+        <v>-2.401043423586367</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.75388941673241</v>
+        <v>12.35742202280391</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.072380582467324</v>
+        <v>-2.026941235877335</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.839343900281792</v>
+        <v>9.757565516704506</v>
       </c>
     </row>
     <row r="37">
@@ -1515,16 +1515,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.4281655292811337</v>
+        <v>-0.4254685861876868</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2527840535302442</v>
+        <v>0.248953044691158</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.434994437062948</v>
+        <v>-0.4330541302573244</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2232353042939804</v>
+        <v>0.221234340665579</v>
       </c>
     </row>
     <row r="39">
@@ -1537,16 +1537,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>-0.1219687010121301</v>
+        <v>-0.1254381604739902</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7605468749180382</v>
+        <v>0.7390791936832448</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1489335264345589</v>
+        <v>-0.1456780451615723</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7282164152759711</v>
+        <v>0.7012742226392394</v>
       </c>
     </row>
     <row r="40">
@@ -1564,7 +1564,7 @@
         <v>0.06409830891062201</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>6.200278470167768</v>
+        <v>6.20027847016777</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-3.308072708419627</v>
@@ -1587,22 +1587,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.146530755458814</v>
+        <v>-1.229884139627947</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.796545920556233</v>
+        <v>4.669453130983334</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.113988992230682</v>
+        <v>-5.099918729625912</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.822052454332026</v>
+        <v>8.905282540908146</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.69086522269475</v>
+        <v>-2.830208694528723</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>7.270005237312114</v>
+        <v>7.327121621943131</v>
       </c>
     </row>
     <row r="42">
@@ -1613,22 +1613,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.306933407526963</v>
+        <v>1.29343997390464</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.473336075871578</v>
+        <v>7.686691162866969</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.532340405229544</v>
+        <v>-1.413905342298727</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.28431538880636</v>
+        <v>12.56852088905395</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.486305695633047</v>
+        <v>-0.6153982611687309</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.645873373961502</v>
+        <v>9.781776548239177</v>
       </c>
     </row>
     <row r="43">
@@ -1642,7 +1642,7 @@
         <v>0.009608736452096568</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.9294604297989183</v>
+        <v>0.9294604297989187</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.2027791132057097</v>
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1544626817677065</v>
+        <v>-0.1651567304249284</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.661146171108783</v>
+        <v>0.6346882565477726</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.296370901071707</v>
+        <v>-0.2970061778428985</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5147563125644699</v>
+        <v>0.5050793071885332</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2203732371487756</v>
+        <v>-0.2325627175728265</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5880499132720279</v>
+        <v>0.6009400448647823</v>
       </c>
     </row>
     <row r="45">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2258205748745415</v>
+        <v>0.2108906028130396</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.248948089438288</v>
+        <v>1.308801728968212</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.09890951620876748</v>
+        <v>-0.09155983665753345</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7938459082358863</v>
+        <v>0.8089006647059582</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.04140105389997108</v>
+        <v>-0.05389237639098317</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8705974521326321</v>
+        <v>0.8858634449983639</v>
       </c>
     </row>
     <row r="46">
